--- a/schedule-1-7-2024.xlsx
+++ b/schedule-1-7-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\sensem2\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F7C916-330E-8C48-9D1B-4703ED0BEE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C5B64-B986-5E42-B517-D8D2908691C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>Class number</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Thu</t>
-  </si>
-  <si>
-    <t>[science symposium poster session -- Iris only]</t>
   </si>
   <si>
     <t>project work day</t>
@@ -248,12 +245,6 @@
   </si>
   <si>
     <t>PP2 final</t>
-  </si>
-  <si>
-    <t>[Iris: PP3]</t>
-  </si>
-  <si>
-    <t>PP3</t>
   </si>
   <si>
     <t>FP, IR4</t>
@@ -308,9 +299,6 @@
     <t>5/14, 9am</t>
   </si>
   <si>
-    <t>[civic engagement symposium, 12:00-1:30pm]</t>
-  </si>
-  <si>
     <t>[required Clarke Forum event: Amy Diehl]</t>
   </si>
   <si>
@@ -342,6 +330,18 @@
   </si>
   <si>
     <t>Note: possible Senior CS Social event, Tuesday 5/14, 5:30-7pm</t>
+  </si>
+  <si>
+    <t>honors projects: PP3</t>
+  </si>
+  <si>
+    <t>civic engagement symposium, 12:00-1:30pm - open source capstone project poster presentations</t>
+  </si>
+  <si>
+    <t>open source projects: PP3</t>
+  </si>
+  <si>
+    <t>Science research symposium, 430-6pm - honors project poster presentations</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,25 +412,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -530,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -587,12 +586,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,6 +598,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -617,17 +613,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,8 +959,8 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -991,11 +1011,11 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>93</v>
+      <c r="E2" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="25"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
@@ -1009,14 +1029,14 @@
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>60</v>
+      <c r="F3" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1035,14 +1055,14 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>61</v>
+      <c r="F4" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1058,8 +1078,8 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>91</v>
+      <c r="E5" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="8"/>
@@ -1080,14 +1100,14 @@
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1103,13 +1123,13 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>44</v>
+      <c r="E7" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="25"/>
+        <v>57</v>
+      </c>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
@@ -1127,14 +1147,14 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>76</v>
+      <c r="E8" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1150,11 +1170,11 @@
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>91</v>
+      <c r="E9" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -1174,14 +1194,14 @@
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>78</v>
+      <c r="E10" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1197,8 +1217,8 @@
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>91</v>
+      <c r="E11" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
@@ -1219,14 +1239,14 @@
       <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>80</v>
+      <c r="E12" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1242,11 +1262,11 @@
       <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>91</v>
+      <c r="E13" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -1266,12 +1286,12 @@
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>92</v>
+      <c r="E14" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -1287,11 +1307,11 @@
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>91</v>
+      <c r="E15" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -1308,10 +1328,10 @@
         <f t="shared" si="2"/>
         <v>45363</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
@@ -1325,8 +1345,8 @@
         <f t="shared" si="2"/>
         <v>45366</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="17"/>
       <c r="G17" s="8"/>
     </row>
@@ -1346,14 +1366,14 @@
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>52</v>
+      <c r="E18" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,8 +1389,8 @@
       <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>91</v>
+      <c r="E19" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
@@ -1391,11 +1411,11 @@
       <c r="D20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G20" s="8"/>
     </row>
@@ -1412,11 +1432,11 @@
       <c r="D21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>45</v>
+      <c r="E21" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="8"/>
     </row>
@@ -1436,17 +1456,17 @@
       <c r="D22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>82</v>
+      <c r="E22" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1459,11 +1479,11 @@
       <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>69</v>
+      <c r="E23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -1471,16 +1491,16 @@
       <c r="A24" s="18">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="32">
         <v>45390</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="34"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
@@ -1500,8 +1520,8 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="26" t="s">
-        <v>87</v>
+      <c r="E25" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="8"/>
@@ -1519,11 +1539,11 @@
       <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>91</v>
+      <c r="E26" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="8"/>
     </row>
@@ -1543,28 +1563,28 @@
       <c r="D27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>88</v>
+      <c r="E27" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="5">
-        <v>45036</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="7" t="s">
-        <v>71</v>
+      <c r="C28" s="32">
+        <v>45400</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="G28" s="8"/>
     </row>
@@ -1581,11 +1601,11 @@
       <c r="D29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>89</v>
+      <c r="E29" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="8"/>
     </row>
@@ -1605,30 +1625,30 @@
       <c r="D30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>83</v>
+      <c r="E30" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="32">
         <v>45041</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="7" t="s">
-        <v>72</v>
+      <c r="D31" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="G31" s="8"/>
     </row>
@@ -1645,8 +1665,8 @@
       <c r="D32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>91</v>
+      <c r="E32" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
@@ -1667,8 +1687,8 @@
       <c r="D33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>95</v>
+      <c r="E33" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
@@ -1686,31 +1706,31 @@
       <c r="D34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>90</v>
+      <c r="E34" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
+      <c r="C35" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>96</v>
+      <c r="F35" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1718,9 +1738,11 @@
       <c r="G36" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule-1-7-2024.xlsx
+++ b/schedule-1-7-2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\sensem2\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C5B64-B986-5E42-B517-D8D2908691C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79975C0-3C2E-4C26-85D4-F5CBFC24AB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>Class number</t>
   </si>
@@ -529,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,34 +555,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -590,9 +589,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,6 +597,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -613,12 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,23 +639,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,22 +956,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.45703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="6.58984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="7.26171875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="37.53125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.6796875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="67.125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.14453125" style="13"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="67.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -998,8 +993,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1011,14 +1006,14 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1029,18 +1024,18 @@
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+    <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -1055,18 +1050,18 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="str">
         <f>B3</f>
         <v>Fri</v>
@@ -1078,14 +1073,14 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <f t="shared" ref="A6" si="0">A4+1</f>
         <v>3</v>
       </c>
@@ -1100,7 +1095,7 @@
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1110,8 +1105,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1123,16 +1118,16 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <f t="shared" ref="A8" si="3">A6+1</f>
         <v>4</v>
       </c>
@@ -1147,7 +1142,7 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1157,8 +1152,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1170,7 +1165,7 @@
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -1178,8 +1173,8 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <f t="shared" ref="A10" si="4">A8+1</f>
         <v>5</v>
       </c>
@@ -1194,18 +1189,18 @@
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1217,14 +1212,14 @@
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+    <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <f t="shared" ref="A12" si="5">A10+1</f>
         <v>6</v>
       </c>
@@ -1239,7 +1234,7 @@
       <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -1249,8 +1244,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1262,7 +1257,7 @@
       <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -1270,8 +1265,8 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
         <f t="shared" ref="A14" si="6">A12+1</f>
         <v>7</v>
       </c>
@@ -1286,7 +1281,7 @@
       <c r="D14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>88</v>
       </c>
       <c r="F14" s="7"/>
@@ -1294,8 +1289,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1307,7 +1302,7 @@
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -1315,8 +1310,8 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <f t="shared" ref="A16" si="7">A14+1</f>
         <v>8</v>
       </c>
@@ -1328,15 +1323,15 @@
         <f t="shared" si="2"/>
         <v>45363</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1345,13 +1340,13 @@
         <f t="shared" si="2"/>
         <v>45366</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <f t="shared" ref="A18" si="8">A16+1</f>
         <v>9</v>
       </c>
@@ -1366,7 +1361,7 @@
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -1376,8 +1371,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
       <c r="B19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1389,14 +1384,14 @@
       <c r="D19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <f t="shared" ref="A20" si="9">A18+1</f>
         <v>10</v>
       </c>
@@ -1411,7 +1406,7 @@
       <c r="D20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -1419,8 +1414,8 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
       <c r="B21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1432,7 +1427,7 @@
       <c r="D21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -1440,8 +1435,8 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <f t="shared" ref="A22" si="10">A20+1</f>
         <v>11</v>
       </c>
@@ -1456,18 +1451,18 @@
       <c r="D22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:7" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
       <c r="B23" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1479,33 +1474,33 @@
       <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>12</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="26">
         <v>45390</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <f t="shared" ref="A25" si="11">A22+1</f>
         <v>12</v>
       </c>
@@ -1520,14 +1515,14 @@
       <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
       <c r="B26" s="4" t="str">
         <f>B23</f>
         <v>Fri</v>
@@ -1539,7 +1534,7 @@
       <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -1547,8 +1542,8 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <f t="shared" ref="A27" si="12">A25+1</f>
         <v>13</v>
       </c>
@@ -1563,7 +1558,7 @@
       <c r="D27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -1571,25 +1566,25 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="31" t="s">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="26">
         <v>45400</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="27" t="s">
         <v>93</v>
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+    <row r="29" spans="1:7" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="str">
         <f>B26</f>
         <v>Fri</v>
@@ -1601,7 +1596,7 @@
       <c r="D29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="22" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -1609,8 +1604,8 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <f t="shared" ref="A30" si="13">A27+1</f>
         <v>14</v>
       </c>
@@ -1625,35 +1620,35 @@
       <c r="D30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="31" t="s">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="26">
         <v>45041</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="37" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="27" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
       <c r="B32" s="4" t="str">
         <f>B29</f>
         <v>Fri</v>
@@ -1665,14 +1660,14 @@
       <c r="D32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="24" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <f t="shared" ref="A33" si="14">A30+1</f>
         <v>15</v>
       </c>
@@ -1687,14 +1682,14 @@
       <c r="D33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="22" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
       <c r="B34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Fri</v>
@@ -1706,7 +1701,7 @@
       <c r="D34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="22" t="s">
         <v>86</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -1714,28 +1709,28 @@
       </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="40" t="s">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+    <row r="36" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
